--- a/key_table/key_table.xlsx
+++ b/key_table/key_table.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38c17db4ddb98eaf/Projects/Pseudonymate/key_table/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD370574B4F783F11592860B151A1E78F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC6BADB0-34F1-4BA7-913A-5EE31C77EC36}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>NRIC</t>
-  </si>
-  <si>
-    <t>Pseudo_ID</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,21 +420,529 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NRIC</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Pseudo_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17614336</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>exeye771065290</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17244801</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ebqwn708216454</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16544389</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tdlgy983518207</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>16775558</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>yprcj966361053</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20390796</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>kdezh694674813</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15756561</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hdpad821753738</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12962962</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>etgly660224832</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17880465</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>tnxjy529813879</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>15624849</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>gxruz493741338</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17029014</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ltdrx276075826</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17226396</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>nlkrv955583151</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>19419806</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ylsgj334467650</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14710303</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>aclbg888578092</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21410336</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>gmcdd432345838</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>18107041</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>thdkj500337752</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23604896</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>dxkxh575971177</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18087716</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pjpag476081307</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>14172199</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ehzuo504500169</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>15006249</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ojiiq520017344</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>14880809</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>fxzrp498692183</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19012393</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>klqur350736859</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12242478</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>omwzg120806643</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>15445818</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>mjdna118649954</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>19713212</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ksbmy435987961</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>18240188</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rouxa445184236</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>14896708</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>hbnzq962264035</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>19152197</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>lbrtu971916803</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12255558</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>uvvyv819830159</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>15641543</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>vsstb976733575</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>16423620</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ylwbo148652146</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>13511753</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cbhey463219667</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>12854602</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>qqpod607570118</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>16406091</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>apupu322123356</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>14187341</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>qthim184943699</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>imkpv990227534</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>18495053</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>eetpb377908068</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>26024398</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pthuw758818794</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>14291666</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>zhizz758269918</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>14009812</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sqqlr506240103</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>22480853</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>gsmae284557375</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>13342678</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xtcuw345147147</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>18774488</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ancit803920296</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>17371608</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>utxdg137181065</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>13611110</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>vuopk820312642</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>18992102</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mhcgt488422004</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>12868336</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>dkceg720548587</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>13497332</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>dwtmi763326863</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>24785141</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ozeze231562927</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20698873</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>iqjpc120902692</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>16218109</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>yonil962963069</t>
+        </is>
       </c>
     </row>
   </sheetData>
